--- a/BackTest/2019-11-13 BackTest IOST.xlsx
+++ b/BackTest/2019-11-13 BackTest IOST.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.5800000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L12" t="n">
         <v>7.408999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.5899999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>30.23255813953482</v>
+      </c>
       <c r="L13" t="n">
         <v>7.411999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.6100000000000003</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>7.422999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.620000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>7.423999999999998</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.660000000000001</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>23.52941176470579</v>
+      </c>
       <c r="L16" t="n">
         <v>7.427999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.660000000000001</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>13.33333333333328</v>
+      </c>
       <c r="L17" t="n">
         <v>7.435999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.6800000000000006</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>35.71428571428545</v>
+      </c>
       <c r="L18" t="n">
         <v>7.441999999999998</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.7000000000000002</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>74.99999999999982</v>
+      </c>
       <c r="L19" t="n">
         <v>7.453999999999998</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.7199999999999998</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>37.49999999999993</v>
+      </c>
       <c r="L20" t="n">
         <v>7.469999999999997</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.7399999999999993</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>37.49999999999993</v>
+      </c>
       <c r="L21" t="n">
         <v>7.477999999999997</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.7399999999999993</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>46.66666666666643</v>
+      </c>
       <c r="L22" t="n">
         <v>7.483999999999997</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.7399999999999993</v>
       </c>
       <c r="K23" t="n">
-        <v>14.70588235294113</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L23" t="n">
         <v>7.490999999999997</v>
@@ -1466,7 +1488,7 @@
         <v>0.8499999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>44.92753623188398</v>
+        <v>82.60869565217418</v>
       </c>
       <c r="L24" t="n">
         <v>7.510999999999996</v>
@@ -1515,7 +1537,7 @@
         <v>0.8899999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>38.70967741935481</v>
+        <v>82.60869565217418</v>
       </c>
       <c r="L25" t="n">
         <v>7.533999999999996</v>
@@ -1564,7 +1586,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>39.68253968253963</v>
+        <v>84.00000000000028</v>
       </c>
       <c r="L26" t="n">
         <v>7.554999999999995</v>
@@ -1613,7 +1635,7 @@
         <v>0.9300000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>44.26229508196705</v>
+        <v>67.99999999999997</v>
       </c>
       <c r="L27" t="n">
         <v>7.573999999999995</v>
@@ -1662,7 +1684,7 @@
         <v>0.9700000000000006</v>
       </c>
       <c r="K28" t="n">
-        <v>44.26229508196705</v>
+        <v>70.3703703703704</v>
       </c>
       <c r="L28" t="n">
         <v>7.594999999999994</v>
@@ -1711,7 +1733,7 @@
         <v>1.050000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>59.99999999999983</v>
+        <v>87.87878787878763</v>
       </c>
       <c r="L29" t="n">
         <v>7.621999999999995</v>
@@ -1760,7 +1782,7 @@
         <v>1.050000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>76.27118644067789</v>
+        <v>87.09677419354814</v>
       </c>
       <c r="L30" t="n">
         <v>7.650999999999996</v>
@@ -1809,7 +1831,7 @@
         <v>1.07</v>
       </c>
       <c r="K31" t="n">
-        <v>72.54901960784301</v>
+        <v>87.87878787878763</v>
       </c>
       <c r="L31" t="n">
         <v>7.679999999999997</v>
@@ -1860,7 +1882,7 @@
         <v>1.07</v>
       </c>
       <c r="K32" t="n">
-        <v>71.42857142857133</v>
+        <v>87.87878787878763</v>
       </c>
       <c r="L32" t="n">
         <v>7.708999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>1.13</v>
       </c>
       <c r="K33" t="n">
-        <v>55.55555555555551</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L33" t="n">
         <v>7.731999999999998</v>
@@ -1962,7 +1984,7 @@
         <v>1.26</v>
       </c>
       <c r="K34" t="n">
-        <v>69.23076923076931</v>
+        <v>56.75675675675673</v>
       </c>
       <c r="L34" t="n">
         <v>7.756999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>1.28</v>
       </c>
       <c r="K35" t="n">
-        <v>69.69696969696977</v>
+        <v>56.75675675675673</v>
       </c>
       <c r="L35" t="n">
         <v>7.779999999999998</v>
@@ -2064,7 +2086,7 @@
         <v>1.290000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>65.07936507936498</v>
+        <v>61.11111111111099</v>
       </c>
       <c r="L36" t="n">
         <v>7.799999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>1.380000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>44.44444444444437</v>
+        <v>21.95121951219508</v>
       </c>
       <c r="L37" t="n">
         <v>7.812999999999998</v>
@@ -2166,7 +2188,7 @@
         <v>1.470000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>49.36708860759489</v>
+        <v>23.80952380952373</v>
       </c>
       <c r="L38" t="n">
         <v>7.830999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>1.56</v>
       </c>
       <c r="K39" t="n">
-        <v>32.55813953488374</v>
+        <v>1.960784313725449</v>
       </c>
       <c r="L39" t="n">
         <v>7.831999999999998</v>
@@ -2268,7 +2290,7 @@
         <v>1.65</v>
       </c>
       <c r="K40" t="n">
-        <v>41.93548387096768</v>
+        <v>13.79310344827587</v>
       </c>
       <c r="L40" t="n">
         <v>7.841999999999997</v>
@@ -2319,7 +2341,7 @@
         <v>1.65</v>
       </c>
       <c r="K41" t="n">
-        <v>40.65934065934063</v>
+        <v>13.79310344827587</v>
       </c>
       <c r="L41" t="n">
         <v>7.849999999999997</v>
@@ -2370,7 +2392,7 @@
         <v>1.74</v>
       </c>
       <c r="K42" t="n">
-        <v>28</v>
+        <v>8.196721311475375</v>
       </c>
       <c r="L42" t="n">
         <v>7.848999999999997</v>
@@ -2421,7 +2443,7 @@
         <v>1.81</v>
       </c>
       <c r="K43" t="n">
-        <v>32.71028037383179</v>
+        <v>-1.818181818181777</v>
       </c>
       <c r="L43" t="n">
         <v>7.860999999999997</v>
@@ -2472,7 +2494,7 @@
         <v>1.880000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>16.50485436893202</v>
+        <v>-16.66666666666674</v>
       </c>
       <c r="L44" t="n">
         <v>7.852999999999997</v>
@@ -2523,7 +2545,7 @@
         <v>1.940000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>18.09523809523811</v>
+        <v>-4.615384615384515</v>
       </c>
       <c r="L45" t="n">
         <v>7.848999999999997</v>
@@ -2574,7 +2596,7 @@
         <v>2.000000000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>10.09174311926599</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>7.839999999999996</v>
@@ -2625,7 +2647,7 @@
         <v>2.060000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>16.81415929203541</v>
+        <v>-5.084745762711742</v>
       </c>
       <c r="L47" t="n">
         <v>7.845999999999997</v>
@@ -2676,7 +2698,7 @@
         <v>2.070000000000003</v>
       </c>
       <c r="K48" t="n">
-        <v>12.72727272727267</v>
+        <v>9.803921568627368</v>
       </c>
       <c r="L48" t="n">
         <v>7.841999999999996</v>
@@ -2727,7 +2749,7 @@
         <v>2.120000000000003</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9345794392523147</v>
+        <v>-19.14893617021264</v>
       </c>
       <c r="L49" t="n">
         <v>7.841999999999996</v>
@@ -2778,7 +2800,7 @@
         <v>2.180000000000003</v>
       </c>
       <c r="K50" t="n">
-        <v>6.194690265486737</v>
+        <v>-5.660377358490414</v>
       </c>
       <c r="L50" t="n">
         <v>7.838999999999996</v>
@@ -2829,7 +2851,7 @@
         <v>2.350000000000003</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.374999999999918</v>
+        <v>-18.03278688524572</v>
       </c>
       <c r="L51" t="n">
         <v>7.818999999999996</v>
@@ -2880,7 +2902,7 @@
         <v>2.390000000000003</v>
       </c>
       <c r="K52" t="n">
-        <v>-6.060606060605985</v>
+        <v>-24.13793103448259</v>
       </c>
       <c r="L52" t="n">
         <v>7.811999999999996</v>
@@ -2931,7 +2953,7 @@
         <v>2.460000000000004</v>
       </c>
       <c r="K53" t="n">
-        <v>-6.766917293233053</v>
+        <v>-24.13793103448259</v>
       </c>
       <c r="L53" t="n">
         <v>7.790999999999995</v>
@@ -2982,7 +3004,7 @@
         <v>2.550000000000003</v>
       </c>
       <c r="K54" t="n">
-        <v>-24.03100775193789</v>
+        <v>-47.54098360655722</v>
       </c>
       <c r="L54" t="n">
         <v>7.767999999999996</v>
@@ -3033,7 +3055,7 @@
         <v>2.670000000000003</v>
       </c>
       <c r="K55" t="n">
-        <v>-15.10791366906471</v>
+        <v>-16.41791044776107</v>
       </c>
       <c r="L55" t="n">
         <v>7.750999999999996</v>
@@ -3084,7 +3106,7 @@
         <v>2.760000000000004</v>
       </c>
       <c r="K56" t="n">
-        <v>-19.72789115646254</v>
+        <v>-37.14285714285713</v>
       </c>
       <c r="L56" t="n">
         <v>7.730999999999996</v>
@@ -3135,7 +3157,7 @@
         <v>2.780000000000005</v>
       </c>
       <c r="K57" t="n">
-        <v>-12.8571428571428</v>
+        <v>-32.39436619718295</v>
       </c>
       <c r="L57" t="n">
         <v>7.706999999999996</v>
@@ -3186,7 +3208,7 @@
         <v>2.810000000000005</v>
       </c>
       <c r="K58" t="n">
-        <v>-17.91044776119392</v>
+        <v>-21.73913043478246</v>
       </c>
       <c r="L58" t="n">
         <v>7.686999999999998</v>
@@ -3237,7 +3259,7 @@
         <v>2.810000000000005</v>
       </c>
       <c r="K59" t="n">
-        <v>-11.99999999999991</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L59" t="n">
         <v>7.671999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>2.820000000000005</v>
       </c>
       <c r="K60" t="n">
-        <v>-19.65811965811955</v>
+        <v>-6.382978723404288</v>
       </c>
       <c r="L60" t="n">
         <v>7.651999999999998</v>
@@ -3339,7 +3361,7 @@
         <v>2.960000000000004</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.870229007633556</v>
+        <v>12.28070175438583</v>
       </c>
       <c r="L61" t="n">
         <v>7.662999999999998</v>
@@ -3390,7 +3412,7 @@
         <v>2.960000000000004</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>27.99999999999989</v>
       </c>
       <c r="L62" t="n">
         <v>7.669999999999997</v>
@@ -3441,7 +3463,7 @@
         <v>2.960000000000004</v>
       </c>
       <c r="K63" t="n">
-        <v>-6.086956521739134</v>
+        <v>56.0975609756095</v>
       </c>
       <c r="L63" t="n">
         <v>7.683999999999997</v>
@@ -3492,7 +3514,7 @@
         <v>3.030000000000005</v>
       </c>
       <c r="K64" t="n">
-        <v>6.086956521739134</v>
+        <v>49.99999999999976</v>
       </c>
       <c r="L64" t="n">
         <v>7.713999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>3.030000000000005</v>
       </c>
       <c r="K65" t="n">
-        <v>0.917431192660528</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
         <v>7.731999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>3.060000000000005</v>
       </c>
       <c r="K66" t="n">
-        <v>9.433962264150965</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
         <v>7.762</v>
@@ -3645,7 +3667,7 @@
         <v>3.070000000000006</v>
       </c>
       <c r="K67" t="n">
-        <v>2.970297029702897</v>
+        <v>92.30769230769181</v>
       </c>
       <c r="L67" t="n">
         <v>7.789</v>
@@ -3696,7 +3718,7 @@
         <v>3.080000000000006</v>
       </c>
       <c r="K68" t="n">
-        <v>4.950495049505004</v>
+        <v>92.59259259259213</v>
       </c>
       <c r="L68" t="n">
         <v>7.814</v>
@@ -3747,7 +3769,7 @@
         <v>3.090000000000007</v>
       </c>
       <c r="K69" t="n">
-        <v>9.278350515463863</v>
+        <v>85.18518518518431</v>
       </c>
       <c r="L69" t="n">
         <v>7.837999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>3.100000000000008</v>
       </c>
       <c r="K70" t="n">
-        <v>4.347826086956505</v>
+        <v>71.42857142857017</v>
       </c>
       <c r="L70" t="n">
         <v>7.862</v>
@@ -3849,7 +3871,7 @@
         <v>3.100000000000008</v>
       </c>
       <c r="K71" t="n">
-        <v>27.99999999999983</v>
+        <v>71.42857142857017</v>
       </c>
       <c r="L71" t="n">
         <v>7.872000000000002</v>
@@ -3900,7 +3922,7 @@
         <v>3.160000000000008</v>
       </c>
       <c r="K72" t="n">
-        <v>14.28571428571412</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L72" t="n">
         <v>7.876000000000002</v>
@@ -3951,7 +3973,7 @@
         <v>3.400000000000008</v>
       </c>
       <c r="K73" t="n">
-        <v>-6.382978723404276</v>
+        <v>-72.97297297297237</v>
       </c>
       <c r="L73" t="n">
         <v>7.856000000000002</v>
@@ -4002,7 +4024,7 @@
         <v>3.400000000000008</v>
       </c>
       <c r="K74" t="n">
-        <v>3.529411764705786</v>
+        <v>-72.97297297297237</v>
       </c>
       <c r="L74" t="n">
         <v>7.829000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>3.410000000000009</v>
       </c>
       <c r="K75" t="n">
-        <v>-10.81081081081074</v>
+        <v>-82.85714285714189</v>
       </c>
       <c r="L75" t="n">
         <v>7.803</v>
@@ -4104,7 +4126,7 @@
         <v>3.420000000000009</v>
       </c>
       <c r="K76" t="n">
-        <v>3.030303030303079</v>
+        <v>-77.14285714285631</v>
       </c>
       <c r="L76" t="n">
         <v>7.775</v>

--- a/BackTest/2019-11-13 BackTest IOST.xlsx
+++ b/BackTest/2019-11-13 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,67 +394,42 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MA20</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -463,623 +438,591 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.39</v>
+        <v>7.5</v>
       </c>
       <c r="C2" t="n">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="D2" t="n">
-        <v>7.39</v>
+        <v>7.5</v>
       </c>
       <c r="E2" t="n">
-        <v>7.36</v>
+        <v>7.5</v>
       </c>
       <c r="F2" t="n">
-        <v>8063.391</v>
+        <v>3826.6464</v>
       </c>
       <c r="G2" t="n">
-        <v>7.511666666666667</v>
+        <v>1049221.7033</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.35</v>
+        <v>7.57</v>
       </c>
       <c r="C3" t="n">
-        <v>7.42</v>
+        <v>7.57</v>
       </c>
       <c r="D3" t="n">
-        <v>7.42</v>
+        <v>7.57</v>
       </c>
       <c r="E3" t="n">
-        <v>7.35</v>
+        <v>7.57</v>
       </c>
       <c r="F3" t="n">
-        <v>8582</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>7.510333333333334</v>
+        <v>1049321.7033</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.5</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.34</v>
+        <v>7.44</v>
       </c>
       <c r="C4" t="n">
         <v>7.32</v>
       </c>
       <c r="D4" t="n">
-        <v>7.34</v>
+        <v>7.44</v>
       </c>
       <c r="E4" t="n">
         <v>7.32</v>
       </c>
       <c r="F4" t="n">
-        <v>102169.9261</v>
+        <v>3475.3664</v>
       </c>
       <c r="G4" t="n">
-        <v>7.506166666666667</v>
+        <v>1045846.3369</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.43</v>
+        <v>7.49</v>
       </c>
       <c r="C5" t="n">
-        <v>7.43</v>
+        <v>7.49</v>
       </c>
       <c r="D5" t="n">
-        <v>7.43</v>
+        <v>7.49</v>
       </c>
       <c r="E5" t="n">
-        <v>7.43</v>
+        <v>7.49</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="G5" t="n">
-        <v>7.508</v>
+        <v>1045915.3369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0699999999999994</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2699999999999987</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>7.32</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.44</v>
+        <v>7.49</v>
       </c>
       <c r="C6" t="n">
-        <v>7.44</v>
+        <v>7.49</v>
       </c>
       <c r="D6" t="n">
-        <v>7.44</v>
+        <v>7.49</v>
       </c>
       <c r="E6" t="n">
-        <v>7.44</v>
+        <v>7.49</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>1406.3664</v>
       </c>
       <c r="G6" t="n">
-        <v>7.507166666666667</v>
+        <v>1045915.3369</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2799999999999994</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>7.49</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.4</v>
+        <v>7.48</v>
       </c>
       <c r="C7" t="n">
-        <v>7.4</v>
+        <v>7.48</v>
       </c>
       <c r="D7" t="n">
-        <v>7.4</v>
+        <v>7.48</v>
       </c>
       <c r="E7" t="n">
-        <v>7.4</v>
+        <v>7.48</v>
       </c>
       <c r="F7" t="n">
-        <v>79378.5384</v>
+        <v>305193</v>
       </c>
       <c r="G7" t="n">
-        <v>7.505666666666666</v>
+        <v>740722.3368999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3199999999999994</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.44</v>
+        <v>7.48</v>
       </c>
       <c r="C8" t="n">
-        <v>7.44</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="n">
-        <v>7.44</v>
+        <v>7.5</v>
       </c>
       <c r="E8" t="n">
-        <v>7.44</v>
+        <v>7.48</v>
       </c>
       <c r="F8" t="n">
-        <v>255.1241</v>
+        <v>134096.0066</v>
       </c>
       <c r="G8" t="n">
-        <v>7.504999999999999</v>
+        <v>874818.3434999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.3599999999999994</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.4</v>
+        <v>7.51</v>
       </c>
       <c r="C9" t="n">
-        <v>7.4</v>
+        <v>7.51</v>
       </c>
       <c r="D9" t="n">
-        <v>7.4</v>
+        <v>7.57</v>
       </c>
       <c r="E9" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="F9" t="n">
-        <v>8202.6962</v>
+        <v>1119938.305</v>
       </c>
       <c r="G9" t="n">
-        <v>7.503333333333332</v>
+        <v>1994756.6485</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.3999999999999995</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.34</v>
+        <v>7.57</v>
       </c>
       <c r="C10" t="n">
-        <v>7.34</v>
+        <v>7.52</v>
       </c>
       <c r="D10" t="n">
-        <v>7.34</v>
+        <v>7.58</v>
       </c>
       <c r="E10" t="n">
-        <v>7.34</v>
+        <v>7.52</v>
       </c>
       <c r="F10" t="n">
-        <v>1995</v>
+        <v>471611.2639</v>
       </c>
       <c r="G10" t="n">
-        <v>7.500499999999999</v>
+        <v>2466367.9124</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.44</v>
+        <v>7.49</v>
       </c>
       <c r="C11" t="n">
-        <v>7.44</v>
+        <v>7.48</v>
       </c>
       <c r="D11" t="n">
-        <v>7.44</v>
+        <v>7.55</v>
       </c>
       <c r="E11" t="n">
-        <v>7.44</v>
+        <v>7.48</v>
       </c>
       <c r="F11" t="n">
-        <v>669</v>
+        <v>573467.2158</v>
       </c>
       <c r="G11" t="n">
-        <v>7.499166666666666</v>
+        <v>1892900.6966</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5600000000000005</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>7.398999999999999</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.44</v>
+        <v>7.5</v>
       </c>
       <c r="C12" t="n">
-        <v>7.46</v>
+        <v>7.53</v>
       </c>
       <c r="D12" t="n">
-        <v>7.46</v>
+        <v>7.53</v>
       </c>
       <c r="E12" t="n">
-        <v>7.44</v>
+        <v>7.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1100</v>
+        <v>105924.7615</v>
       </c>
       <c r="G12" t="n">
-        <v>7.498833333333332</v>
+        <v>1998825.4581</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5800000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7.408999999999999</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.42</v>
+        <v>7.5</v>
       </c>
       <c r="C13" t="n">
-        <v>7.45</v>
+        <v>7.5</v>
       </c>
       <c r="D13" t="n">
-        <v>7.45</v>
+        <v>7.5</v>
       </c>
       <c r="E13" t="n">
-        <v>7.41</v>
+        <v>7.5</v>
       </c>
       <c r="F13" t="n">
-        <v>60806.3356</v>
+        <v>73.173</v>
       </c>
       <c r="G13" t="n">
-        <v>7.497499999999999</v>
+        <v>1998752.2851</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5899999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>30.23255813953482</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7.411999999999999</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.42</v>
+        <v>7.5</v>
       </c>
       <c r="C14" t="n">
-        <v>7.43</v>
+        <v>7.49</v>
       </c>
       <c r="D14" t="n">
-        <v>7.43</v>
+        <v>7.5</v>
       </c>
       <c r="E14" t="n">
-        <v>7.42</v>
+        <v>7.49</v>
       </c>
       <c r="F14" t="n">
-        <v>4749</v>
+        <v>160629.4159</v>
       </c>
       <c r="G14" t="n">
-        <v>7.496333333333332</v>
+        <v>1838122.8692</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6100000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.422999999999999</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.44</v>
+        <v>7.49</v>
       </c>
       <c r="C15" t="n">
-        <v>7.44</v>
+        <v>7.49</v>
       </c>
       <c r="D15" t="n">
-        <v>7.44</v>
+        <v>7.5</v>
       </c>
       <c r="E15" t="n">
-        <v>7.44</v>
+        <v>7.49</v>
       </c>
       <c r="F15" t="n">
-        <v>223</v>
+        <v>206887.5215</v>
       </c>
       <c r="G15" t="n">
-        <v>7.495499999999998</v>
+        <v>1838122.8692</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.620000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7.423999999999998</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.44</v>
+        <v>7.48</v>
       </c>
       <c r="C16" t="n">
         <v>7.48</v>
@@ -1088,3062 +1031,4471 @@
         <v>7.48</v>
       </c>
       <c r="E16" t="n">
-        <v>7.44</v>
+        <v>7.48</v>
       </c>
       <c r="F16" t="n">
-        <v>266021.3279</v>
+        <v>5511.5562</v>
       </c>
       <c r="G16" t="n">
-        <v>7.495333333333332</v>
+        <v>1832611.313</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.660000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>23.52941176470579</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7.427999999999999</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.48</v>
+        <v>7.49</v>
       </c>
       <c r="C17" t="n">
-        <v>7.48</v>
+        <v>7.53</v>
       </c>
       <c r="D17" t="n">
-        <v>7.48</v>
+        <v>7.53</v>
       </c>
       <c r="E17" t="n">
-        <v>7.48</v>
+        <v>7.49</v>
       </c>
       <c r="F17" t="n">
-        <v>2378</v>
+        <v>11365.5535</v>
       </c>
       <c r="G17" t="n">
-        <v>7.495333333333332</v>
+        <v>1843976.8665</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.660000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>13.33333333333328</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7.435999999999998</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.48</v>
+        <v>7.56</v>
       </c>
       <c r="C18" t="n">
-        <v>7.5</v>
+        <v>7.56</v>
       </c>
       <c r="D18" t="n">
-        <v>7.5</v>
+        <v>7.56</v>
       </c>
       <c r="E18" t="n">
-        <v>7.48</v>
+        <v>7.56</v>
       </c>
       <c r="F18" t="n">
-        <v>42789.0513</v>
+        <v>9003.5733</v>
       </c>
       <c r="G18" t="n">
-        <v>7.494833333333332</v>
+        <v>1852980.4398</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>35.71428571428545</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.441999999999998</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.51</v>
+        <v>7.54</v>
       </c>
       <c r="C19" t="n">
-        <v>7.52</v>
+        <v>7.55</v>
       </c>
       <c r="D19" t="n">
-        <v>7.52</v>
+        <v>7.55</v>
       </c>
       <c r="E19" t="n">
-        <v>7.51</v>
+        <v>7.54</v>
       </c>
       <c r="F19" t="n">
-        <v>3000</v>
+        <v>24127.0414</v>
       </c>
       <c r="G19" t="n">
-        <v>7.494166666666666</v>
+        <v>1828853.3984</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.7000000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>74.99999999999982</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7.453999999999998</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.5</v>
+        <v>7.55</v>
       </c>
       <c r="C20" t="n">
-        <v>7.5</v>
+        <v>7.55</v>
       </c>
       <c r="D20" t="n">
-        <v>7.5</v>
+        <v>7.55</v>
       </c>
       <c r="E20" t="n">
-        <v>7.5</v>
+        <v>7.55</v>
       </c>
       <c r="F20" t="n">
-        <v>50717.57</v>
+        <v>3965.2373</v>
       </c>
       <c r="G20" t="n">
-        <v>7.493333333333331</v>
+        <v>1828853.3984</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7199999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>37.49999999999993</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7.469999999999997</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.52</v>
+        <v>7.56</v>
       </c>
       <c r="C21" t="n">
-        <v>7.52</v>
+        <v>7.58</v>
       </c>
       <c r="D21" t="n">
-        <v>7.52</v>
+        <v>7.58</v>
       </c>
       <c r="E21" t="n">
-        <v>7.52</v>
+        <v>7.56</v>
       </c>
       <c r="F21" t="n">
-        <v>70</v>
+        <v>255000</v>
       </c>
       <c r="G21" t="n">
-        <v>7.492833333333332</v>
+        <v>2083853.3984</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.7399999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>37.49999999999993</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7.477999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>7.4385</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.52</v>
+        <v>7.58</v>
       </c>
       <c r="C22" t="n">
-        <v>7.52</v>
+        <v>7.63</v>
       </c>
       <c r="D22" t="n">
-        <v>7.52</v>
+        <v>7.63</v>
       </c>
       <c r="E22" t="n">
-        <v>7.52</v>
+        <v>7.58</v>
       </c>
       <c r="F22" t="n">
-        <v>6259</v>
+        <v>37407.0303</v>
       </c>
       <c r="G22" t="n">
-        <v>7.491833333333331</v>
+        <v>2121260.4287</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7399999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>46.66666666666643</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.483999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>7.4465</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.52</v>
+        <v>7.62</v>
       </c>
       <c r="C23" t="n">
-        <v>7.52</v>
+        <v>7.62</v>
       </c>
       <c r="D23" t="n">
-        <v>7.52</v>
+        <v>7.62</v>
       </c>
       <c r="E23" t="n">
-        <v>7.52</v>
+        <v>7.62</v>
       </c>
       <c r="F23" t="n">
-        <v>14689</v>
+        <v>828</v>
       </c>
       <c r="G23" t="n">
-        <v>7.489999999999998</v>
+        <v>2120432.4287</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7399999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>69.23076923076965</v>
-      </c>
-      <c r="L23" t="n">
-        <v>7.490999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>7.451500000000001</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.52</v>
+        <v>7.63</v>
       </c>
       <c r="C24" t="n">
-        <v>7.63</v>
+        <v>7.64</v>
       </c>
       <c r="D24" t="n">
-        <v>7.66</v>
+        <v>7.64</v>
       </c>
       <c r="E24" t="n">
-        <v>7.52</v>
+        <v>7.62</v>
       </c>
       <c r="F24" t="n">
-        <v>2175836.6418</v>
+        <v>168501.4324</v>
       </c>
       <c r="G24" t="n">
-        <v>7.490166666666664</v>
+        <v>2288933.8611</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2699999999999996</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.8499999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>82.60869565217418</v>
-      </c>
-      <c r="L24" t="n">
-        <v>7.510999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>7.467000000000001</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.63</v>
+        <v>7.64</v>
       </c>
       <c r="C25" t="n">
-        <v>7.67</v>
+        <v>7.64</v>
       </c>
       <c r="D25" t="n">
-        <v>7.74</v>
+        <v>7.64</v>
       </c>
       <c r="E25" t="n">
-        <v>7.63</v>
+        <v>7.64</v>
       </c>
       <c r="F25" t="n">
-        <v>783703.7237</v>
+        <v>14680.4201</v>
       </c>
       <c r="G25" t="n">
-        <v>7.490666666666665</v>
+        <v>2288933.8611</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3099999999999996</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.8899999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>82.60869565217418</v>
-      </c>
-      <c r="L25" t="n">
-        <v>7.533999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>7.479000000000001</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.69</v>
+        <v>7.61</v>
       </c>
       <c r="C26" t="n">
-        <v>7.69</v>
+        <v>7.6</v>
       </c>
       <c r="D26" t="n">
-        <v>7.69</v>
+        <v>7.61</v>
       </c>
       <c r="E26" t="n">
-        <v>7.69</v>
+        <v>7.6</v>
       </c>
       <c r="F26" t="n">
-        <v>267848.5517</v>
+        <v>156320.8566</v>
       </c>
       <c r="G26" t="n">
-        <v>7.491499999999998</v>
+        <v>2132613.0045</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3300000000000001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.9100000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>84.00000000000028</v>
-      </c>
-      <c r="L26" t="n">
-        <v>7.554999999999995</v>
+        <v>7.5</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>7.4915</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.69</v>
+        <v>7.59</v>
       </c>
       <c r="C27" t="n">
-        <v>7.67</v>
+        <v>7.59</v>
       </c>
       <c r="D27" t="n">
-        <v>7.69</v>
+        <v>7.59</v>
       </c>
       <c r="E27" t="n">
-        <v>7.67</v>
+        <v>7.59</v>
       </c>
       <c r="F27" t="n">
-        <v>102494.7684</v>
+        <v>72400</v>
       </c>
       <c r="G27" t="n">
-        <v>7.492666666666665</v>
+        <v>2060213.0045</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3099999999999996</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.9300000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>67.99999999999997</v>
-      </c>
-      <c r="L27" t="n">
-        <v>7.573999999999995</v>
+        <v>7.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>7.505</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.7</v>
+        <v>7.56</v>
       </c>
       <c r="C28" t="n">
-        <v>7.71</v>
+        <v>7.5</v>
       </c>
       <c r="D28" t="n">
-        <v>7.71</v>
+        <v>7.56</v>
       </c>
       <c r="E28" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="F28" t="n">
-        <v>268424.7998</v>
+        <v>17571.4286</v>
       </c>
       <c r="G28" t="n">
-        <v>7.494666666666665</v>
+        <v>2042641.5759</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3499999999999996</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9700000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>70.3703703703704</v>
-      </c>
-      <c r="L28" t="n">
-        <v>7.594999999999994</v>
+        <v>7.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>7.5185</v>
+        <v>1</v>
       </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.71</v>
+        <v>7.46</v>
       </c>
       <c r="C29" t="n">
-        <v>7.79</v>
+        <v>7.46</v>
       </c>
       <c r="D29" t="n">
-        <v>7.79</v>
+        <v>7.46</v>
       </c>
       <c r="E29" t="n">
-        <v>7.69</v>
+        <v>7.46</v>
       </c>
       <c r="F29" t="n">
-        <v>625592.0721</v>
+        <v>4287.8914</v>
       </c>
       <c r="G29" t="n">
-        <v>7.499499999999999</v>
+        <v>2038353.6845</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4299999999999997</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>87.87878787878763</v>
-      </c>
-      <c r="L29" t="n">
-        <v>7.621999999999995</v>
+        <v>7.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>7.537999999999999</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.7</v>
+        <v>7.46</v>
       </c>
       <c r="C30" t="n">
-        <v>7.79</v>
+        <v>7.46</v>
       </c>
       <c r="D30" t="n">
-        <v>7.79</v>
+        <v>7.46</v>
       </c>
       <c r="E30" t="n">
-        <v>7.7</v>
+        <v>7.46</v>
       </c>
       <c r="F30" t="n">
-        <v>67955.3132</v>
+        <v>545.3866</v>
       </c>
       <c r="G30" t="n">
-        <v>7.504999999999999</v>
+        <v>2038353.6845</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4299999999999997</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>87.09677419354814</v>
-      </c>
-      <c r="L30" t="n">
-        <v>7.650999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>7.560499999999999</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.78</v>
+        <v>7.52</v>
       </c>
       <c r="C31" t="n">
-        <v>7.81</v>
+        <v>7.52</v>
       </c>
       <c r="D31" t="n">
-        <v>7.81</v>
+        <v>7.52</v>
       </c>
       <c r="E31" t="n">
-        <v>7.78</v>
+        <v>7.52</v>
       </c>
       <c r="F31" t="n">
-        <v>809243.7791</v>
+        <v>10000</v>
       </c>
       <c r="G31" t="n">
-        <v>7.510833333333333</v>
+        <v>2048353.6845</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4499999999999993</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>87.87878787878763</v>
-      </c>
-      <c r="L31" t="n">
-        <v>7.679999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>7.578999999999999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>7.519</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.81</v>
+        <v>7.5</v>
       </c>
       <c r="C32" t="n">
-        <v>7.81</v>
+        <v>7.5</v>
       </c>
       <c r="D32" t="n">
-        <v>7.81</v>
+        <v>7.5</v>
       </c>
       <c r="E32" t="n">
-        <v>7.81</v>
+        <v>7.5</v>
       </c>
       <c r="F32" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>7.515666666666666</v>
+        <v>2048253.6845</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4499999999999993</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>87.87878787878763</v>
-      </c>
-      <c r="L32" t="n">
-        <v>7.708999999999998</v>
+        <v>7.5</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>7.596499999999999</v>
-      </c>
-      <c r="N32" t="n">
-        <v>7.534</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.85</v>
+        <v>7.51</v>
       </c>
       <c r="C33" t="n">
-        <v>7.75</v>
+        <v>7.48</v>
       </c>
       <c r="D33" t="n">
-        <v>7.85</v>
+        <v>7.51</v>
       </c>
       <c r="E33" t="n">
-        <v>7.75</v>
+        <v>7.48</v>
       </c>
       <c r="F33" t="n">
-        <v>110</v>
+        <v>68840.0539</v>
       </c>
       <c r="G33" t="n">
-        <v>7.519833333333334</v>
+        <v>1979413.6306</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3899999999999997</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7.731999999999998</v>
+        <v>7.5</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>7.611499999999999</v>
-      </c>
-      <c r="N33" t="n">
-        <v>7.545</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.86</v>
+        <v>7.5</v>
       </c>
       <c r="C34" t="n">
-        <v>7.88</v>
+        <v>7.5</v>
       </c>
       <c r="D34" t="n">
-        <v>7.88</v>
+        <v>7.5</v>
       </c>
       <c r="E34" t="n">
-        <v>7.86</v>
+        <v>7.5</v>
       </c>
       <c r="F34" t="n">
-        <v>3539</v>
+        <v>5527.8287</v>
       </c>
       <c r="G34" t="n">
-        <v>7.5265</v>
+        <v>1984941.4593</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5199999999999996</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>56.75675675675673</v>
-      </c>
-      <c r="L34" t="n">
-        <v>7.756999999999998</v>
+        <v>7.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>7.633999999999999</v>
-      </c>
-      <c r="N34" t="n">
-        <v>7.563666666666666</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.89</v>
+        <v>7.49</v>
       </c>
       <c r="C35" t="n">
-        <v>7.9</v>
+        <v>7.49</v>
       </c>
       <c r="D35" t="n">
-        <v>7.9</v>
+        <v>7.49</v>
       </c>
       <c r="E35" t="n">
-        <v>7.89</v>
+        <v>7.49</v>
       </c>
       <c r="F35" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>7.533166666666665</v>
+        <v>1984841.4593</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>56.75675675675673</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.779999999999998</v>
+        <v>7.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>7.656999999999999</v>
-      </c>
-      <c r="N35" t="n">
-        <v>7.579333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.86</v>
+        <v>7.49</v>
       </c>
       <c r="C36" t="n">
-        <v>7.89</v>
+        <v>7.37</v>
       </c>
       <c r="D36" t="n">
-        <v>7.89</v>
+        <v>7.49</v>
       </c>
       <c r="E36" t="n">
-        <v>7.82</v>
+        <v>7.37</v>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>66043.7347</v>
       </c>
       <c r="G36" t="n">
-        <v>7.539833333333332</v>
+        <v>1918797.7246</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5299999999999994</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.290000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>61.11111111111099</v>
-      </c>
-      <c r="L36" t="n">
-        <v>7.799999999999999</v>
+        <v>7.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>7.677499999999999</v>
-      </c>
-      <c r="N36" t="n">
-        <v>7.594333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.82</v>
+        <v>7.49</v>
       </c>
       <c r="C37" t="n">
-        <v>7.8</v>
+        <v>7.49</v>
       </c>
       <c r="D37" t="n">
-        <v>7.82</v>
+        <v>7.49</v>
       </c>
       <c r="E37" t="n">
-        <v>7.8</v>
+        <v>7.49</v>
       </c>
       <c r="F37" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G37" t="n">
-        <v>7.546999999999999</v>
+        <v>1926797.7246</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.380000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>21.95121951219508</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7.812999999999998</v>
+        <v>7.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>7.6935</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7.607666666666666</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.89</v>
+        <v>7.5</v>
       </c>
       <c r="C38" t="n">
-        <v>7.89</v>
+        <v>7.5</v>
       </c>
       <c r="D38" t="n">
-        <v>7.89</v>
+        <v>7.5</v>
       </c>
       <c r="E38" t="n">
-        <v>7.89</v>
+        <v>7.5</v>
       </c>
       <c r="F38" t="n">
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>7.553666666666666</v>
+        <v>1926897.7246</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5299999999999994</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.470000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>23.80952380952373</v>
-      </c>
-      <c r="L38" t="n">
-        <v>7.830999999999999</v>
+        <v>7.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>7.712999999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>7.622666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.8</v>
+        <v>7.51</v>
       </c>
       <c r="C39" t="n">
-        <v>7.8</v>
+        <v>7.54</v>
       </c>
       <c r="D39" t="n">
-        <v>7.8</v>
+        <v>7.54</v>
       </c>
       <c r="E39" t="n">
-        <v>7.8</v>
+        <v>7.51</v>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>2309.9469</v>
       </c>
       <c r="G39" t="n">
-        <v>7.558666666666666</v>
+        <v>1929207.6715</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>1.960784313725449</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.831999999999998</v>
+        <v>7.5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>7.726999999999999</v>
-      </c>
-      <c r="N39" t="n">
-        <v>7.635999999999999</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.89</v>
+        <v>7.56</v>
       </c>
       <c r="C40" t="n">
-        <v>7.89</v>
+        <v>7.56</v>
       </c>
       <c r="D40" t="n">
-        <v>7.89</v>
+        <v>7.56</v>
       </c>
       <c r="E40" t="n">
-        <v>7.89</v>
+        <v>7.56</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>61487.6158</v>
       </c>
       <c r="G40" t="n">
-        <v>7.564499999999998</v>
+        <v>1990695.2873</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5299999999999994</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>13.79310344827587</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7.841999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>7.746499999999999</v>
-      </c>
-      <c r="N40" t="n">
-        <v>7.654333333333332</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.89</v>
+        <v>7.56</v>
       </c>
       <c r="C41" t="n">
-        <v>7.89</v>
+        <v>7.56</v>
       </c>
       <c r="D41" t="n">
-        <v>7.89</v>
+        <v>7.56</v>
       </c>
       <c r="E41" t="n">
-        <v>7.89</v>
+        <v>7.56</v>
       </c>
       <c r="F41" t="n">
-        <v>1000</v>
+        <v>22510.1294</v>
       </c>
       <c r="G41" t="n">
-        <v>7.569999999999998</v>
+        <v>1990695.2873</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5299999999999994</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>13.79310344827587</v>
-      </c>
-      <c r="L41" t="n">
-        <v>7.849999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>7.764999999999998</v>
-      </c>
-      <c r="N41" t="n">
-        <v>7.669333333333332</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.8</v>
+        <v>7.55</v>
       </c>
       <c r="C42" t="n">
-        <v>7.8</v>
+        <v>7.55</v>
       </c>
       <c r="D42" t="n">
-        <v>7.8</v>
+        <v>7.55</v>
       </c>
       <c r="E42" t="n">
-        <v>7.8</v>
+        <v>7.55</v>
       </c>
       <c r="F42" t="n">
-        <v>70</v>
+        <v>1065342.4353</v>
       </c>
       <c r="G42" t="n">
-        <v>7.573999999999998</v>
+        <v>925352.852</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>8.196721311475375</v>
-      </c>
-      <c r="L42" t="n">
-        <v>7.848999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>7.778999999999998</v>
-      </c>
-      <c r="N42" t="n">
-        <v>7.680666666666665</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.87</v>
+        <v>7.56</v>
       </c>
       <c r="C43" t="n">
-        <v>7.87</v>
+        <v>7.56</v>
       </c>
       <c r="D43" t="n">
-        <v>7.87</v>
+        <v>7.56</v>
       </c>
       <c r="E43" t="n">
-        <v>7.87</v>
+        <v>7.56</v>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>9468.7894</v>
       </c>
       <c r="G43" t="n">
-        <v>7.579333333333332</v>
+        <v>934821.6414</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5099999999999998</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>-1.818181818181777</v>
-      </c>
-      <c r="L43" t="n">
-        <v>7.860999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>7.796499999999997</v>
-      </c>
-      <c r="N43" t="n">
-        <v>7.694666666666666</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.8</v>
+        <v>7.56</v>
       </c>
       <c r="C44" t="n">
-        <v>7.8</v>
+        <v>7.56</v>
       </c>
       <c r="D44" t="n">
-        <v>7.8</v>
+        <v>7.56</v>
       </c>
       <c r="E44" t="n">
-        <v>7.8</v>
+        <v>7.56</v>
       </c>
       <c r="F44" t="n">
-        <v>70</v>
+        <v>10962.0368</v>
       </c>
       <c r="G44" t="n">
-        <v>7.583333333333331</v>
+        <v>934821.6414</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.880000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>-16.66666666666674</v>
-      </c>
-      <c r="L44" t="n">
-        <v>7.852999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>7.804999999999998</v>
-      </c>
-      <c r="N44" t="n">
-        <v>7.706999999999999</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.86</v>
+        <v>7.59</v>
       </c>
       <c r="C45" t="n">
-        <v>7.86</v>
+        <v>7.56</v>
       </c>
       <c r="D45" t="n">
-        <v>7.86</v>
+        <v>7.59</v>
       </c>
       <c r="E45" t="n">
-        <v>7.86</v>
+        <v>7.56</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>966.8</v>
       </c>
       <c r="G45" t="n">
-        <v>7.588333333333332</v>
+        <v>934821.6414</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.940000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>-4.615384615384515</v>
-      </c>
-      <c r="L45" t="n">
-        <v>7.848999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>7.8145</v>
-      </c>
-      <c r="N45" t="n">
-        <v>7.721</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.8</v>
+        <v>7.56</v>
       </c>
       <c r="C46" t="n">
-        <v>7.8</v>
+        <v>7.56</v>
       </c>
       <c r="D46" t="n">
-        <v>7.8</v>
+        <v>7.56</v>
       </c>
       <c r="E46" t="n">
-        <v>7.8</v>
+        <v>7.56</v>
       </c>
       <c r="F46" t="n">
-        <v>70</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="n">
-        <v>7.592333333333332</v>
+        <v>934821.6414</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.000000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>7.839999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="N46" t="n">
-        <v>7.731666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.86</v>
+        <v>7.54</v>
       </c>
       <c r="C47" t="n">
-        <v>7.86</v>
+        <v>7.52</v>
       </c>
       <c r="D47" t="n">
-        <v>7.86</v>
+        <v>7.54</v>
       </c>
       <c r="E47" t="n">
-        <v>7.86</v>
+        <v>7.52</v>
       </c>
       <c r="F47" t="n">
-        <v>70</v>
+        <v>50230.0531</v>
       </c>
       <c r="G47" t="n">
-        <v>7.597333333333332</v>
+        <v>884591.5882999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.060000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>-5.084745762711742</v>
-      </c>
-      <c r="L47" t="n">
-        <v>7.845999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>7.829500000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>7.744333333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.85</v>
+        <v>7.51</v>
       </c>
       <c r="C48" t="n">
-        <v>7.85</v>
+        <v>7.51</v>
       </c>
       <c r="D48" t="n">
-        <v>7.85</v>
+        <v>7.51</v>
       </c>
       <c r="E48" t="n">
-        <v>7.85</v>
+        <v>7.51</v>
       </c>
       <c r="F48" t="n">
-        <v>38123.0147</v>
+        <v>8433.0005</v>
       </c>
       <c r="G48" t="n">
-        <v>7.602833333333333</v>
+        <v>876158.5878</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4899999999999993</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.070000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>9.803921568627368</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.841999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>7.836500000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>7.756000000000001</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="C49" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="D49" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="E49" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>134010</v>
       </c>
       <c r="G49" t="n">
-        <v>7.607666666666666</v>
+        <v>742148.5878</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.120000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>-19.14893617021264</v>
-      </c>
-      <c r="L49" t="n">
-        <v>7.841999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>7.837000000000002</v>
-      </c>
-      <c r="N49" t="n">
-        <v>7.765333333333334</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.86</v>
+        <v>7.46</v>
       </c>
       <c r="C50" t="n">
-        <v>7.86</v>
+        <v>7.46</v>
       </c>
       <c r="D50" t="n">
-        <v>7.86</v>
+        <v>7.46</v>
       </c>
       <c r="E50" t="n">
-        <v>7.86</v>
+        <v>7.46</v>
       </c>
       <c r="F50" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>7.613666666666666</v>
+        <v>741148.5878</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.180000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>-5.660377358490414</v>
-      </c>
-      <c r="L50" t="n">
-        <v>7.838999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>7.840500000000003</v>
-      </c>
-      <c r="N50" t="n">
-        <v>7.777333333333335</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="C51" t="n">
-        <v>7.69</v>
+        <v>7.5</v>
       </c>
       <c r="D51" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="E51" t="n">
-        <v>7.69</v>
+        <v>7.5</v>
       </c>
       <c r="F51" t="n">
-        <v>139564.4591</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>7.617500000000001</v>
+        <v>742148.5878</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3300000000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.350000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>-18.03278688524572</v>
-      </c>
-      <c r="L51" t="n">
-        <v>7.818999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>7.834500000000003</v>
-      </c>
-      <c r="N51" t="n">
-        <v>7.783000000000001</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.73</v>
+        <v>7.51</v>
       </c>
       <c r="C52" t="n">
-        <v>7.73</v>
+        <v>7.52</v>
       </c>
       <c r="D52" t="n">
-        <v>7.73</v>
+        <v>7.52</v>
       </c>
       <c r="E52" t="n">
-        <v>7.73</v>
+        <v>7.51</v>
       </c>
       <c r="F52" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G52" t="n">
-        <v>7.621333333333334</v>
+        <v>742348.5878</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3700000000000001</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.390000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>-24.13793103448259</v>
-      </c>
-      <c r="L52" t="n">
-        <v>7.811999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>7.830500000000002</v>
-      </c>
-      <c r="N52" t="n">
-        <v>7.790000000000001</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.66</v>
+        <v>7.52</v>
       </c>
       <c r="C53" t="n">
-        <v>7.66</v>
+        <v>7.52</v>
       </c>
       <c r="D53" t="n">
-        <v>7.66</v>
+        <v>7.52</v>
       </c>
       <c r="E53" t="n">
-        <v>7.66</v>
+        <v>7.52</v>
       </c>
       <c r="F53" t="n">
-        <v>13392.8644</v>
+        <v>200</v>
       </c>
       <c r="G53" t="n">
-        <v>7.623666666666668</v>
+        <v>742348.5878</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.460000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>-24.13793103448259</v>
-      </c>
-      <c r="L53" t="n">
-        <v>7.790999999999995</v>
+        <v>7.5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>7.826000000000002</v>
-      </c>
-      <c r="N53" t="n">
-        <v>7.794666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.65</v>
+        <v>7.51</v>
       </c>
       <c r="C54" t="n">
-        <v>7.57</v>
+        <v>7.51</v>
       </c>
       <c r="D54" t="n">
-        <v>7.65</v>
+        <v>7.51</v>
       </c>
       <c r="E54" t="n">
-        <v>7.57</v>
+        <v>7.51</v>
       </c>
       <c r="F54" t="n">
-        <v>122797.1356</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>7.624500000000001</v>
+        <v>742248.5878</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.550000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>-47.54098360655722</v>
-      </c>
-      <c r="L54" t="n">
-        <v>7.767999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>7.810500000000002</v>
-      </c>
-      <c r="N54" t="n">
-        <v>7.792666666666666</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.69</v>
+        <v>7.5</v>
       </c>
       <c r="C55" t="n">
-        <v>7.69</v>
+        <v>7.49</v>
       </c>
       <c r="D55" t="n">
-        <v>7.69</v>
+        <v>7.5</v>
       </c>
       <c r="E55" t="n">
-        <v>7.69</v>
+        <v>7.49</v>
       </c>
       <c r="F55" t="n">
-        <v>87.22790000000001</v>
+        <v>200</v>
       </c>
       <c r="G55" t="n">
-        <v>7.627500000000001</v>
+        <v>742048.5878</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3300000000000001</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.670000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>-16.41791044776107</v>
-      </c>
-      <c r="L55" t="n">
-        <v>7.750999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>7.800000000000002</v>
-      </c>
-      <c r="N55" t="n">
-        <v>7.793333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.6</v>
+        <v>7.48</v>
       </c>
       <c r="C56" t="n">
-        <v>7.6</v>
+        <v>7.48</v>
       </c>
       <c r="D56" t="n">
-        <v>7.6</v>
+        <v>7.48</v>
       </c>
       <c r="E56" t="n">
-        <v>7.6</v>
+        <v>7.48</v>
       </c>
       <c r="F56" t="n">
-        <v>92405</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>7.629333333333335</v>
+        <v>741948.5878</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2399999999999993</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.760000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>-37.14285714285713</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.730999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>7.785500000000002</v>
-      </c>
-      <c r="N56" t="n">
-        <v>7.790333333333334</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.61</v>
+        <v>7.48</v>
       </c>
       <c r="C57" t="n">
-        <v>7.62</v>
+        <v>7.48</v>
       </c>
       <c r="D57" t="n">
-        <v>7.62</v>
+        <v>7.48</v>
       </c>
       <c r="E57" t="n">
-        <v>7.61</v>
+        <v>7.48</v>
       </c>
       <c r="F57" t="n">
-        <v>116368.4232</v>
+        <v>16000</v>
       </c>
       <c r="G57" t="n">
-        <v>7.631666666666669</v>
+        <v>741948.5878</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.780000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>-32.39436619718295</v>
-      </c>
-      <c r="L57" t="n">
-        <v>7.706999999999996</v>
+        <v>7.5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>7.776500000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>7.788666666666668</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.62</v>
+        <v>7.48</v>
       </c>
       <c r="C58" t="n">
-        <v>7.65</v>
+        <v>7.48</v>
       </c>
       <c r="D58" t="n">
-        <v>7.65</v>
+        <v>7.48</v>
       </c>
       <c r="E58" t="n">
-        <v>7.62</v>
+        <v>7.48</v>
       </c>
       <c r="F58" t="n">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="n">
-        <v>7.634500000000001</v>
+        <v>741948.5878</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.810000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>-21.73913043478246</v>
-      </c>
-      <c r="L58" t="n">
-        <v>7.686999999999998</v>
+        <v>7.5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>7.764500000000003</v>
-      </c>
-      <c r="N58" t="n">
-        <v>7.786666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.65</v>
+        <v>7.47</v>
       </c>
       <c r="C59" t="n">
-        <v>7.65</v>
+        <v>7.41</v>
       </c>
       <c r="D59" t="n">
-        <v>7.65</v>
+        <v>7.47</v>
       </c>
       <c r="E59" t="n">
-        <v>7.65</v>
+        <v>7.41</v>
       </c>
       <c r="F59" t="n">
-        <v>1582.6147</v>
+        <v>5803.8216</v>
       </c>
       <c r="G59" t="n">
-        <v>7.637333333333333</v>
+        <v>736144.7662</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.810000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>-33.33333333333324</v>
-      </c>
-      <c r="L59" t="n">
-        <v>7.671999999999999</v>
+        <v>7.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>7.757000000000002</v>
-      </c>
-      <c r="N59" t="n">
-        <v>7.782000000000001</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.65</v>
+        <v>7.4</v>
       </c>
       <c r="C60" t="n">
-        <v>7.66</v>
+        <v>7.4</v>
       </c>
       <c r="D60" t="n">
-        <v>7.66</v>
+        <v>7.4</v>
       </c>
       <c r="E60" t="n">
-        <v>7.65</v>
+        <v>7.4</v>
       </c>
       <c r="F60" t="n">
-        <v>178181.3853</v>
+        <v>93426.9322</v>
       </c>
       <c r="G60" t="n">
-        <v>7.6415</v>
+        <v>642717.8339999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.820000000000005</v>
+        <v>7.41</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.382978723404288</v>
-      </c>
-      <c r="L60" t="n">
-        <v>7.651999999999998</v>
+        <v>7.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>7.745500000000002</v>
-      </c>
-      <c r="N60" t="n">
-        <v>7.777666666666668</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.67</v>
+        <v>7.39</v>
       </c>
       <c r="C61" t="n">
-        <v>7.8</v>
+        <v>7.36</v>
       </c>
       <c r="D61" t="n">
-        <v>7.8</v>
+        <v>7.39</v>
       </c>
       <c r="E61" t="n">
-        <v>7.67</v>
+        <v>7.36</v>
       </c>
       <c r="F61" t="n">
-        <v>11000</v>
+        <v>8063.391</v>
       </c>
       <c r="G61" t="n">
-        <v>7.648166666666667</v>
+        <v>634654.443</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4399999999999995</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.960000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="K61" t="n">
-        <v>12.28070175438583</v>
-      </c>
-      <c r="L61" t="n">
-        <v>7.662999999999998</v>
+        <v>7.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>7.741000000000004</v>
-      </c>
-      <c r="N61" t="n">
-        <v>7.777333333333335</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.8</v>
+        <v>7.35</v>
       </c>
       <c r="C62" t="n">
-        <v>7.8</v>
+        <v>7.42</v>
       </c>
       <c r="D62" t="n">
-        <v>7.8</v>
+        <v>7.42</v>
       </c>
       <c r="E62" t="n">
-        <v>7.8</v>
+        <v>7.35</v>
       </c>
       <c r="F62" t="n">
-        <v>28591.9227</v>
+        <v>8582</v>
       </c>
       <c r="G62" t="n">
-        <v>7.655500000000001</v>
+        <v>643236.443</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4399999999999995</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.960000000000004</v>
+        <v>7.36</v>
       </c>
       <c r="K62" t="n">
-        <v>27.99999999999989</v>
-      </c>
-      <c r="L62" t="n">
-        <v>7.669999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>7.741000000000004</v>
-      </c>
-      <c r="N62" t="n">
-        <v>7.777000000000002</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.8</v>
+        <v>7.34</v>
       </c>
       <c r="C63" t="n">
-        <v>7.8</v>
+        <v>7.32</v>
       </c>
       <c r="D63" t="n">
-        <v>7.8</v>
+        <v>7.34</v>
       </c>
       <c r="E63" t="n">
-        <v>7.8</v>
+        <v>7.32</v>
       </c>
       <c r="F63" t="n">
-        <v>36318.6369</v>
+        <v>102169.9261</v>
       </c>
       <c r="G63" t="n">
-        <v>7.661833333333334</v>
+        <v>541066.5168999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4399999999999995</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.960000000000004</v>
+        <v>7.42</v>
       </c>
       <c r="K63" t="n">
-        <v>56.0975609756095</v>
-      </c>
-      <c r="L63" t="n">
-        <v>7.683999999999997</v>
+        <v>7.5</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>7.737500000000004</v>
-      </c>
-      <c r="N63" t="n">
-        <v>7.778666666666669</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.87</v>
+        <v>7.43</v>
       </c>
       <c r="C64" t="n">
-        <v>7.87</v>
+        <v>7.43</v>
       </c>
       <c r="D64" t="n">
-        <v>7.87</v>
+        <v>7.43</v>
       </c>
       <c r="E64" t="n">
-        <v>7.87</v>
+        <v>7.43</v>
       </c>
       <c r="F64" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>7.671000000000001</v>
+        <v>541166.5168999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5099999999999998</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>3.030000000000005</v>
+        <v>7.32</v>
       </c>
       <c r="K64" t="n">
-        <v>49.99999999999976</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.713999999999999</v>
+        <v>7.5</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>7.741000000000004</v>
-      </c>
-      <c r="N64" t="n">
-        <v>7.778333333333336</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.86</v>
+        <v>7.44</v>
       </c>
       <c r="C65" t="n">
-        <v>7.87</v>
+        <v>7.44</v>
       </c>
       <c r="D65" t="n">
-        <v>7.87</v>
+        <v>7.44</v>
       </c>
       <c r="E65" t="n">
-        <v>7.86</v>
+        <v>7.44</v>
       </c>
       <c r="F65" t="n">
-        <v>20055.764</v>
+        <v>70</v>
       </c>
       <c r="G65" t="n">
-        <v>7.678333333333334</v>
+        <v>541236.5168999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.5099999999999998</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.030000000000005</v>
+        <v>7.43</v>
       </c>
       <c r="K65" t="n">
-        <v>100</v>
-      </c>
-      <c r="L65" t="n">
-        <v>7.731999999999999</v>
+        <v>7.5</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>7.741500000000004</v>
-      </c>
-      <c r="N65" t="n">
-        <v>7.777333333333336</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.86</v>
+        <v>7.4</v>
       </c>
       <c r="C66" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="D66" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="E66" t="n">
-        <v>7.86</v>
+        <v>7.4</v>
       </c>
       <c r="F66" t="n">
-        <v>137757.9097302532</v>
+        <v>79378.5384</v>
       </c>
       <c r="G66" t="n">
-        <v>7.686000000000001</v>
+        <v>461857.9784999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.060000000000005</v>
+        <v>7.44</v>
       </c>
       <c r="K66" t="n">
-        <v>100</v>
-      </c>
-      <c r="L66" t="n">
-        <v>7.762</v>
+        <v>7.5</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>7.746500000000003</v>
-      </c>
-      <c r="N66" t="n">
-        <v>7.77766666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.9</v>
+        <v>7.44</v>
       </c>
       <c r="C67" t="n">
-        <v>7.89</v>
+        <v>7.44</v>
       </c>
       <c r="D67" t="n">
-        <v>7.9</v>
+        <v>7.44</v>
       </c>
       <c r="E67" t="n">
-        <v>7.89</v>
+        <v>7.44</v>
       </c>
       <c r="F67" t="n">
-        <v>2885.89278607595</v>
+        <v>255.1241</v>
       </c>
       <c r="G67" t="n">
-        <v>7.694166666666667</v>
+        <v>462113.1025999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.5299999999999994</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.070000000000006</v>
+        <v>7.4</v>
       </c>
       <c r="K67" t="n">
-        <v>92.30769230769181</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.789</v>
+        <v>7.5</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>7.748000000000002</v>
-      </c>
-      <c r="N67" t="n">
-        <v>7.78066666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.88</v>
+        <v>7.4</v>
       </c>
       <c r="C68" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="D68" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="E68" t="n">
-        <v>7.88</v>
+        <v>7.4</v>
       </c>
       <c r="F68" t="n">
-        <v>88739.38501645569</v>
+        <v>8202.6962</v>
       </c>
       <c r="G68" t="n">
-        <v>7.701833333333334</v>
+        <v>453910.4063999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.080000000000006</v>
+        <v>7.44</v>
       </c>
       <c r="K68" t="n">
-        <v>92.59259259259213</v>
-      </c>
-      <c r="L68" t="n">
-        <v>7.814</v>
+        <v>7.5</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>7.750500000000002</v>
-      </c>
-      <c r="N68" t="n">
-        <v>7.781000000000003</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.9</v>
+        <v>7.34</v>
       </c>
       <c r="C69" t="n">
-        <v>7.89</v>
+        <v>7.34</v>
       </c>
       <c r="D69" t="n">
-        <v>7.9</v>
+        <v>7.34</v>
       </c>
       <c r="E69" t="n">
-        <v>7.89</v>
+        <v>7.34</v>
       </c>
       <c r="F69" t="n">
-        <v>51337.82218987342</v>
+        <v>1995</v>
       </c>
       <c r="G69" t="n">
-        <v>7.71</v>
+        <v>451915.4063999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5299999999999994</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.090000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="K69" t="n">
-        <v>85.18518518518431</v>
-      </c>
-      <c r="L69" t="n">
-        <v>7.837999999999999</v>
+        <v>7.5</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>7.755000000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>7.784000000000002</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.9</v>
+        <v>7.44</v>
       </c>
       <c r="C70" t="n">
-        <v>7.9</v>
+        <v>7.44</v>
       </c>
       <c r="D70" t="n">
-        <v>7.9</v>
+        <v>7.44</v>
       </c>
       <c r="E70" t="n">
-        <v>7.9</v>
+        <v>7.44</v>
       </c>
       <c r="F70" t="n">
-        <v>172664.5828</v>
+        <v>669</v>
       </c>
       <c r="G70" t="n">
-        <v>7.719333333333334</v>
+        <v>452584.4063999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3.100000000000008</v>
+        <v>7.34</v>
       </c>
       <c r="K70" t="n">
-        <v>71.42857142857017</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7.862</v>
+        <v>7.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>7.757000000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>7.784333333333336</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.9</v>
+        <v>7.44</v>
       </c>
       <c r="C71" t="n">
-        <v>7.9</v>
+        <v>7.46</v>
       </c>
       <c r="D71" t="n">
-        <v>7.9</v>
+        <v>7.46</v>
       </c>
       <c r="E71" t="n">
-        <v>7.9</v>
+        <v>7.44</v>
       </c>
       <c r="F71" t="n">
-        <v>4025.0749</v>
+        <v>1100</v>
       </c>
       <c r="G71" t="n">
-        <v>7.727</v>
+        <v>453684.4063999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.100000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>71.42857142857017</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.872000000000002</v>
+        <v>7.5</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>7.767500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>7.78466666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.84</v>
+        <v>7.42</v>
       </c>
       <c r="C72" t="n">
-        <v>7.84</v>
+        <v>7.45</v>
       </c>
       <c r="D72" t="n">
-        <v>7.84</v>
+        <v>7.45</v>
       </c>
       <c r="E72" t="n">
-        <v>7.84</v>
+        <v>7.41</v>
       </c>
       <c r="F72" t="n">
-        <v>315.1537</v>
+        <v>60806.3356</v>
       </c>
       <c r="G72" t="n">
-        <v>7.733333333333333</v>
+        <v>392878.0707999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4799999999999995</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.160000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>19.99999999999964</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7.876000000000002</v>
+        <v>7.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>7.773000000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>7.786000000000003</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.81</v>
+        <v>7.42</v>
       </c>
       <c r="C73" t="n">
-        <v>7.6</v>
+        <v>7.43</v>
       </c>
       <c r="D73" t="n">
-        <v>7.81</v>
+        <v>7.43</v>
       </c>
       <c r="E73" t="n">
-        <v>7.55</v>
+        <v>7.42</v>
       </c>
       <c r="F73" t="n">
-        <v>281036.1634</v>
+        <v>4749</v>
       </c>
       <c r="G73" t="n">
-        <v>7.735833333333334</v>
+        <v>388129.0707999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2399999999999993</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.400000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>-72.97297297297237</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.856000000000002</v>
+        <v>7.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>7.770000000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>7.777000000000003</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.61</v>
+        <v>7.44</v>
       </c>
       <c r="C74" t="n">
-        <v>7.6</v>
+        <v>7.44</v>
       </c>
       <c r="D74" t="n">
-        <v>7.61</v>
+        <v>7.44</v>
       </c>
       <c r="E74" t="n">
-        <v>7.6</v>
+        <v>7.44</v>
       </c>
       <c r="F74" t="n">
-        <v>38123.0147</v>
+        <v>223</v>
       </c>
       <c r="G74" t="n">
-        <v>7.738666666666668</v>
+        <v>388352.0707999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2399999999999993</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.400000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>-72.97297297297237</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.829000000000001</v>
+        <v>7.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>7.771500000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>7.770333333333336</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.61</v>
+        <v>7.44</v>
       </c>
       <c r="C75" t="n">
-        <v>7.61</v>
+        <v>7.48</v>
       </c>
       <c r="D75" t="n">
-        <v>7.61</v>
+        <v>7.48</v>
       </c>
       <c r="E75" t="n">
-        <v>7.61</v>
+        <v>7.44</v>
       </c>
       <c r="F75" t="n">
-        <v>500</v>
+        <v>266021.3279</v>
       </c>
       <c r="G75" t="n">
-        <v>7.741500000000001</v>
+        <v>654373.3986999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.410000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>-82.85714285714189</v>
-      </c>
-      <c r="L75" t="n">
-        <v>7.803</v>
+        <v>7.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>7.767500000000003</v>
-      </c>
-      <c r="N75" t="n">
-        <v>7.762000000000002</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2378</v>
+      </c>
+      <c r="G76" t="n">
+        <v>654373.3986999999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F77" t="n">
+        <v>42789.0513</v>
+      </c>
+      <c r="G77" t="n">
+        <v>697162.45</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>700162.45</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>50717.57</v>
+      </c>
+      <c r="G79" t="n">
+        <v>649444.88</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C80" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D80" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E80" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F80" t="n">
+        <v>70</v>
+      </c>
+      <c r="G80" t="n">
+        <v>649514.88</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C81" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F81" t="n">
+        <v>6259</v>
+      </c>
+      <c r="G81" t="n">
+        <v>649514.88</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C82" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E82" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14689</v>
+      </c>
+      <c r="G82" t="n">
+        <v>649514.88</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2175836.6418</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2825351.5218</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D84" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="E84" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F84" t="n">
+        <v>783703.7237</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3609055.2455</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D85" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F85" t="n">
+        <v>267848.5517</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3876903.7972</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="C86" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="E86" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F86" t="n">
+        <v>102494.7684</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3774409.0288</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C87" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="E87" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>268424.7998</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4042833.8286</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="C88" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E88" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F88" t="n">
+        <v>625592.0721</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4668425.9007</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>67955.3132</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4668425.9007</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="E90" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F90" t="n">
+        <v>809243.7791</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5477669.6798</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="F91" t="n">
+        <v>900</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5477669.6798</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="F92" t="n">
+        <v>110</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5477559.6798</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="D93" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3539</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5481098.6798</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5484098.6798</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="F95" t="n">
+        <v>200</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5483898.6798</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5481898.6798</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="F97" t="n">
+        <v>100</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5481998.6798</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5481898.6798</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="F99" t="n">
+        <v>100</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5481998.6798</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5481998.6798</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>70</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5481928.6798</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5482028.6798</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>70</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5481958.6798</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E104" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5482058.6798</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>70</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5481988.6798</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E106" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F106" t="n">
+        <v>70</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5482058.6798</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="F107" t="n">
+        <v>38123.0147</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5443935.6651</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5443835.6651</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F109" t="n">
+        <v>70</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5443905.6651</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F110" t="n">
+        <v>139564.4591</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5304341.206</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F111" t="n">
+        <v>70</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5304411.206</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13392.8644</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5291018.3416</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F113" t="n">
+        <v>122797.1356</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5168221.206</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F114" t="n">
+        <v>87.22790000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5168308.433900001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>92405</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5075903.433900001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="C116" t="n">
         <v>7.62</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D116" t="n">
         <v>7.62</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E116" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F116" t="n">
+        <v>116368.4232</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5192271.857100001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
         <v>7.62</v>
       </c>
-      <c r="E76" t="n">
+      <c r="C117" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E117" t="n">
         <v>7.62</v>
       </c>
-      <c r="F76" t="n">
-        <v>607.2931</v>
-      </c>
-      <c r="G76" t="n">
-        <v>7.743833333333334</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.420000000000009</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-77.14285714285631</v>
-      </c>
-      <c r="L76" t="n">
-        <v>7.775</v>
-      </c>
-      <c r="M76" t="n">
-        <v>7.768500000000003</v>
-      </c>
-      <c r="N76" t="n">
-        <v>7.756000000000002</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
-        <v>1</v>
-      </c>
+      <c r="F117" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5194371.857100001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1582.6147</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5194371.857100001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F119" t="n">
+        <v>178181.3853</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5372553.242400001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F120" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5383553.242400001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>28591.9227</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5383553.242400001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>36318.6369</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5383553.242400001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F123" t="n">
+        <v>70</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5383623.242400001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F124" t="n">
+        <v>20055.764</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5383623.242400001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest IOST.xlsx
+++ b/BackTest/2019-11-13 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>1049221.7033</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,20 +486,13 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,24 +517,15 @@
         <v>1045846.3369</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +552,13 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,26 +583,15 @@
         <v>1045915.3369</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,22 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,24 +649,21 @@
         <v>874818.3434999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7.48</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,24 +688,21 @@
         <v>1994756.6485</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,24 +727,21 @@
         <v>2466367.9124</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7.51</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -830,24 +766,21 @@
         <v>1892900.6966</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.52</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -872,24 +805,21 @@
         <v>1998825.4581</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.48</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -914,24 +844,21 @@
         <v>1998752.2851</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>7.53</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -956,24 +883,21 @@
         <v>1838122.8692</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,24 +922,21 @@
         <v>1838122.8692</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1040,24 +961,21 @@
         <v>1832611.313</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1082,24 +1000,21 @@
         <v>1843976.8665</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.48</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1124,24 +1039,21 @@
         <v>1852980.4398</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.53</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1166,24 +1078,21 @@
         <v>1828853.3984</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>7.56</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1210,22 +1119,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1250,24 +1154,21 @@
         <v>2083853.3984</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,22 +1195,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1336,22 +1232,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,22 +1269,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1420,22 +1306,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1462,22 +1343,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,22 +1380,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,22 +1417,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1588,22 +1454,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1630,22 +1491,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1672,22 +1528,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1714,22 +1565,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1756,22 +1602,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1798,22 +1639,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1840,22 +1676,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1882,22 +1713,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1924,22 +1750,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1966,22 +1787,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2008,22 +1824,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2050,22 +1861,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2092,22 +1898,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2134,22 +1935,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2176,22 +1972,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2218,22 +2009,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,22 +2046,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2302,22 +2083,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2344,22 +2120,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2384,24 +2155,21 @@
         <v>876158.5878</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>7.52</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2426,24 +2194,21 @@
         <v>742148.5878</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>7.51</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2470,22 +2235,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2512,22 +2272,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2552,24 +2307,21 @@
         <v>742348.5878</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2596,22 +2348,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2638,22 +2385,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2680,22 +2422,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2722,22 +2459,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2764,22 +2496,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2806,22 +2533,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2848,22 +2570,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2888,26 +2605,21 @@
         <v>642717.8339999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
         <v>7.41</v>
       </c>
-      <c r="K60" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2932,26 +2644,21 @@
         <v>634654.443</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
         <v>7.4</v>
       </c>
-      <c r="K61" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2976,26 +2683,21 @@
         <v>643236.443</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
         <v>7.36</v>
       </c>
-      <c r="K62" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3020,26 +2722,21 @@
         <v>541066.5168999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
         <v>7.42</v>
       </c>
-      <c r="K63" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3066,24 +2763,17 @@
       <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3110,24 +2800,17 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="K65" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3152,26 +2835,19 @@
         <v>461857.9784999999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K66" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3196,26 +2872,21 @@
         <v>462113.1025999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>7.4</v>
       </c>
-      <c r="K67" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3242,24 +2913,17 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K68" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3286,24 +2950,17 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K69" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3330,24 +2987,17 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3374,22 +3024,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3414,24 +3059,19 @@
         <v>392878.0707999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3456,24 +3096,19 @@
         <v>388129.0707999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3498,24 +3133,19 @@
         <v>388352.0707999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3542,22 +3172,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3584,22 +3209,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3626,22 +3246,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3668,22 +3283,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3708,24 +3318,21 @@
         <v>649444.88</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>7.52</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3750,24 +3357,21 @@
         <v>649514.88</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3794,22 +3398,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3834,24 +3433,21 @@
         <v>649514.88</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>7.52</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3876,24 +3472,21 @@
         <v>2825351.5218</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>7.52</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3920,22 +3513,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3962,22 +3550,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4004,22 +3587,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4046,22 +3624,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4088,22 +3661,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4130,22 +3698,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4172,22 +3735,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4214,22 +3772,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4256,22 +3809,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4298,22 +3846,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4340,22 +3883,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4382,22 +3920,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4424,22 +3957,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4466,22 +3994,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4506,24 +4029,17 @@
         <v>5481898.6798</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4548,24 +4064,15 @@
         <v>5481998.6798</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4590,24 +4097,15 @@
         <v>5481998.6798</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4632,24 +4130,15 @@
         <v>5481928.6798</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4674,24 +4163,15 @@
         <v>5482028.6798</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4716,24 +4196,15 @@
         <v>5481958.6798</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4758,24 +4229,15 @@
         <v>5482058.6798</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1.043</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4800,18 +4262,15 @@
         <v>5481988.6798</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4836,18 +4295,15 @@
         <v>5482058.6798</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4872,18 +4328,15 @@
         <v>5443935.6651</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4910,16 +4363,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4944,18 +4394,15 @@
         <v>5443905.6651</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4982,16 +4429,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5018,16 +4462,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5054,16 +4495,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5090,16 +4528,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5126,16 +4561,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5162,16 +4594,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5198,16 +4627,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5232,18 +4658,15 @@
         <v>5194371.857100001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5270,16 +4693,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5306,16 +4726,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5342,16 +4759,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5378,16 +4792,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5412,18 +4823,15 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5450,16 +4858,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5484,20 +4889,17 @@
         <v>5383623.242400001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest IOST.xlsx
+++ b/BackTest/2019-11-13 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1049221.7033</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1049321.7033</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1045846.3369</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1045915.3369</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,17 +649,11 @@
         <v>874818.3434999998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -688,17 +682,11 @@
         <v>1994756.6485</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,17 +715,11 @@
         <v>2466367.9124</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -766,17 +748,11 @@
         <v>1892900.6966</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -805,17 +781,11 @@
         <v>1998825.4581</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -844,17 +814,11 @@
         <v>1998752.2851</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,17 +847,11 @@
         <v>1838122.8692</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -922,17 +880,11 @@
         <v>1838122.8692</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -961,17 +913,11 @@
         <v>1832611.313</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1000,17 +946,11 @@
         <v>1843976.8665</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1039,17 +979,11 @@
         <v>1852980.4398</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1078,17 +1012,11 @@
         <v>1828853.3984</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1154,17 +1078,11 @@
         <v>2083853.3984</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1197,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1234,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1271,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1308,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1345,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1382,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1419,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1456,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1493,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1530,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1567,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1604,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1641,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1678,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1715,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1752,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1789,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1826,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1863,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1900,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1937,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1974,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2011,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2048,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2085,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2122,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,17 +1969,11 @@
         <v>876158.5878</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2194,17 +2002,11 @@
         <v>742148.5878</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2237,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2274,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2307,17 +2101,11 @@
         <v>742348.5878</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2350,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2387,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2424,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2461,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2498,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2535,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2572,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2605,17 +2365,15 @@
         <v>642717.8339999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>7.41</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2644,15 +2402,17 @@
         <v>634654.443</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>7.4</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2683,12 +2443,14 @@
         <v>643236.443</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>7.36</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2722,12 +2484,14 @@
         <v>541066.5168999999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>7.42</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2763,8 +2527,12 @@
       <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2800,8 +2568,12 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="J65" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2835,10 +2607,14 @@
         <v>461857.9784999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,12 +2648,14 @@
         <v>462113.1025999999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>7.4</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2913,8 +2691,12 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,8 +2732,12 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J69" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2987,8 +2773,12 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="J70" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3025,7 +2815,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3059,10 +2851,12 @@
         <v>392878.0707999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3096,10 +2890,12 @@
         <v>388129.0707999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3133,10 +2929,12 @@
         <v>388352.0707999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3173,7 +2971,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3210,7 +3010,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3247,7 +3049,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3284,7 +3088,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3318,12 +3124,12 @@
         <v>649444.88</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3357,12 +3163,12 @@
         <v>649514.88</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3399,7 +3205,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,12 +3241,12 @@
         <v>649514.88</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,12 +3280,12 @@
         <v>2825351.5218</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3514,7 +3322,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3551,7 +3361,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3588,7 +3400,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3625,7 +3439,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3662,7 +3478,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3699,7 +3517,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3736,7 +3556,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,7 +3595,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3810,7 +3634,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3847,7 +3673,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3884,7 +3712,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3921,7 +3751,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3958,7 +3790,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,7 +3829,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4029,16 +3865,20 @@
         <v>5481898.6798</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>7.41</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -4064,11 +3904,17 @@
         <v>5481998.6798</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4097,11 +3943,17 @@
         <v>5481998.6798</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4130,11 +3982,17 @@
         <v>5481928.6798</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4163,11 +4021,17 @@
         <v>5482028.6798</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4196,11 +4060,17 @@
         <v>5481958.6798</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4229,11 +4099,17 @@
         <v>5482058.6798</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4262,11 +4138,17 @@
         <v>5481988.6798</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4295,11 +4177,17 @@
         <v>5482058.6798</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4328,11 +4216,17 @@
         <v>5443935.6651</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4364,8 +4258,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4394,15 +4294,23 @@
         <v>5443905.6651</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>1.055728744939271</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.043715846994535</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4427,7 +4335,7 @@
         <v>5304341.206</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4460,7 +4368,7 @@
         <v>5304411.206</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4493,7 +4401,7 @@
         <v>5291018.3416</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4526,7 +4434,7 @@
         <v>5168221.206</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4559,7 +4467,7 @@
         <v>5168308.433900001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4592,7 +4500,7 @@
         <v>5075903.433900001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4625,7 +4533,7 @@
         <v>5192271.857100001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4658,7 +4566,7 @@
         <v>5194371.857100001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4691,7 +4599,7 @@
         <v>5194371.857100001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4724,7 +4632,7 @@
         <v>5372553.242400001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4757,7 +4665,7 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4790,7 +4698,7 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4823,7 +4731,7 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4889,7 +4797,7 @@
         <v>5383623.242400001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4900,6 +4808,6 @@
       <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest IOST.xlsx
+++ b/BackTest/2019-11-13 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>2466367.9124</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1892900.6966</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1998825.4581</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1998752.2851</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1838122.8692</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1838122.8692</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1832611.313</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1843976.8665</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1852980.4398</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1828853.3984</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2120432.4287</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2288933.8611</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2132613.0045</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2060213.0045</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2048353.6845</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2048253.6845</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1979413.6306</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1984941.4593</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1984841.4593</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1918797.7246</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1929207.6715</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>1990695.2873</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1990695.2873</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>925352.852</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>934821.6414</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>884591.5882999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>876158.5878</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2365,14 +2365,10 @@
         <v>642717.8339999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="J60" t="n">
-        <v>7.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2402,19 +2398,11 @@
         <v>634654.443</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2443,19 +2431,11 @@
         <v>643236.443</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="J62" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,19 +2464,11 @@
         <v>541066.5168999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2525,19 +2497,11 @@
         <v>541166.5168999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="J64" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2566,19 +2530,11 @@
         <v>541236.5168999999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="J65" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2607,19 +2563,11 @@
         <v>461857.9784999999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2654,13 +2602,9 @@
         <v>7.4</v>
       </c>
       <c r="J67" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>7.4</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2639,11 @@
         <v>7.44</v>
       </c>
       <c r="J68" t="n">
-        <v>7.41</v>
+        <v>7.4</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2730,17 +2674,15 @@
         <v>451915.4063999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
         <v>7.4</v>
       </c>
-      <c r="J69" t="n">
-        <v>7.41</v>
-      </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2771,19 +2713,11 @@
         <v>452584.4063999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2815,14 +2749,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2854,14 +2782,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2890,15 +2812,15 @@
         <v>388129.0707999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>7.41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2929,12 +2851,12 @@
         <v>388352.0707999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>7.41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,12 +2890,12 @@
         <v>654373.3986999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>7.41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,12 +2929,12 @@
         <v>654373.3986999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>7.41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3046,12 +2968,12 @@
         <v>697162.45</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>7.41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3088,9 +3010,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3127,9 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3166,9 +3084,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3205,9 +3121,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3244,9 +3158,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3283,9 +3195,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3322,9 +3232,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3361,9 +3269,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3400,9 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3439,9 +3343,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3478,9 +3380,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3517,9 +3417,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,9 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3595,9 +3491,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3634,9 +3528,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3673,9 +3565,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3712,9 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3751,9 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3790,9 +3676,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3829,9 +3713,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3868,9 +3750,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3907,9 +3787,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3946,9 +3824,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3985,9 +3861,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,9 +3898,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,9 +3935,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4102,9 +3972,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4141,9 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4180,9 +4046,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4219,9 +4083,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4258,9 +4120,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,23 +4154,19 @@
         <v>5443905.6651</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.055728744939271</v>
-      </c>
-      <c r="M109" t="n">
-        <v>1.043715846994535</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4335,11 +4191,15 @@
         <v>5304341.206</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4368,11 +4228,15 @@
         <v>5304411.206</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4401,11 +4265,15 @@
         <v>5291018.3416</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4434,11 +4302,15 @@
         <v>5168221.206</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4467,11 +4339,15 @@
         <v>5168308.433900001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4500,11 +4376,15 @@
         <v>5075903.433900001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4533,11 +4413,15 @@
         <v>5192271.857100001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4566,11 +4450,15 @@
         <v>5194371.857100001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4599,11 +4487,15 @@
         <v>5194371.857100001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4632,11 +4524,15 @@
         <v>5372553.242400001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4665,11 +4561,15 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4698,11 +4598,15 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4735,7 +4639,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4768,7 +4676,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4801,13 +4713,17 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
       <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest IOST.xlsx
+++ b/BackTest/2019-11-13 BackTest IOST.xlsx
@@ -451,7 +451,7 @@
         <v>1049221.7033</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>1049321.7033</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1045846.3369</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>1045915.3369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>1045915.3369</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>740722.3368999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>874818.3434999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>1994756.6485</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,17 @@
         <v>2466367.9124</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +806,17 @@
         <v>1892900.6966</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,17 @@
         <v>1998825.4581</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +884,17 @@
         <v>1998752.2851</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +923,17 @@
         <v>1838122.8692</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +962,17 @@
         <v>1838122.8692</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1001,17 @@
         <v>1832611.313</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1040,17 @@
         <v>1843976.8665</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1079,17 @@
         <v>1852980.4398</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1118,17 @@
         <v>1828853.3984</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1160,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1199,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1238,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1274,17 @@
         <v>2120432.4287</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1313,17 @@
         <v>2288933.8611</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1355,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1391,17 @@
         <v>2132613.0045</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1430,17 @@
         <v>2060213.0045</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1472,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1511,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1586,17 @@
         <v>2048353.6845</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1625,17 @@
         <v>2048253.6845</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1664,17 @@
         <v>1979413.6306</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1703,17 @@
         <v>1984941.4593</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1742,17 @@
         <v>1984841.4593</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1781,17 @@
         <v>1918797.7246</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1823,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1862,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1898,17 @@
         <v>1929207.6715</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1937,17 @@
         <v>1990695.2873</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1976,17 @@
         <v>1990695.2873</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2015,17 @@
         <v>925352.852</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2054,17 @@
         <v>934821.6414</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2096,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2135,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2174,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2210,17 @@
         <v>884591.5882999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2249,17 @@
         <v>876158.5878</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2291,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2369,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2408,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2447,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2486,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2525,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2564,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2603,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2642,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2681,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2720,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2759,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2798,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2837,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2876,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2915,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2954,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,15 +2990,17 @@
         <v>462113.1025999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,17 +3029,15 @@
         <v>453910.4063999999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>7.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2678,11 +3072,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2716,8 +3110,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2749,8 +3149,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2782,8 +3188,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2812,15 +3224,15 @@
         <v>388129.0707999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2851,12 +3263,12 @@
         <v>388352.0707999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2890,12 +3302,12 @@
         <v>654373.3986999999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,12 +3341,12 @@
         <v>654373.3986999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,12 +3380,12 @@
         <v>697162.45</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3010,7 +3422,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3047,7 +3461,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,7 +3500,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,7 +3539,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3158,7 +3578,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,7 +3617,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3232,7 +3656,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3269,7 +3695,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3306,7 +3734,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,7 +3773,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,7 +3812,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3417,7 +3851,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,7 +3890,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3491,7 +3929,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3528,7 +3968,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,7 +4007,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3602,7 +4046,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,17 +4082,19 @@
         <v>5483898.6798</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>1.047</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -3673,15 +4121,11 @@
         <v>5481898.6798</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3710,15 +4154,11 @@
         <v>5481998.6798</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3747,15 +4187,11 @@
         <v>5481898.6798</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3784,15 +4220,11 @@
         <v>5481998.6798</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3825,11 +4257,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3858,15 +4286,11 @@
         <v>5481928.6798</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3895,15 +4319,11 @@
         <v>5482028.6798</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3932,15 +4352,11 @@
         <v>5481958.6798</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3969,15 +4385,11 @@
         <v>5482058.6798</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4006,15 +4418,11 @@
         <v>5481988.6798</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4043,15 +4451,11 @@
         <v>5482058.6798</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4080,15 +4484,11 @@
         <v>5443935.6651</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4117,15 +4517,11 @@
         <v>5443835.6651</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4154,15 +4550,11 @@
         <v>5443905.6651</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4191,15 +4583,11 @@
         <v>5304341.206</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4228,15 +4616,11 @@
         <v>5304411.206</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4265,15 +4649,11 @@
         <v>5291018.3416</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4302,15 +4682,11 @@
         <v>5168221.206</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4339,15 +4715,11 @@
         <v>5168308.433900001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4376,15 +4748,11 @@
         <v>5075903.433900001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4417,11 +4785,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4454,11 +4818,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4491,11 +4851,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4528,11 +4884,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4565,11 +4917,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4598,15 +4946,11 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4635,15 +4979,11 @@
         <v>5383553.242400001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4672,15 +5012,11 @@
         <v>5383623.242400001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4709,15 +5045,11 @@
         <v>5383623.242400001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-13 BackTest IOST.xlsx
+++ b/BackTest/2019-11-13 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3826.6464</v>
       </c>
       <c r="G2" t="n">
-        <v>1049221.7033</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>1049321.7033</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>3475.3664</v>
       </c>
       <c r="G4" t="n">
-        <v>1045846.3369</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>69</v>
       </c>
       <c r="G5" t="n">
-        <v>1045915.3369</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +563,15 @@
         <v>1406.3664</v>
       </c>
       <c r="G6" t="n">
-        <v>1045915.3369</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +593,15 @@
         <v>305193</v>
       </c>
       <c r="G7" t="n">
-        <v>740722.3368999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +623,15 @@
         <v>134096.0066</v>
       </c>
       <c r="G8" t="n">
-        <v>874818.3434999998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +653,15 @@
         <v>1119938.305</v>
       </c>
       <c r="G9" t="n">
-        <v>1994756.6485</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,24 +683,15 @@
         <v>471611.2639</v>
       </c>
       <c r="G10" t="n">
-        <v>2466367.9124</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -803,24 +713,15 @@
         <v>573467.2158</v>
       </c>
       <c r="G11" t="n">
-        <v>1892900.6966</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,24 +743,15 @@
         <v>105924.7615</v>
       </c>
       <c r="G12" t="n">
-        <v>1998825.4581</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -881,24 +773,15 @@
         <v>73.173</v>
       </c>
       <c r="G13" t="n">
-        <v>1998752.2851</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -920,24 +803,15 @@
         <v>160629.4159</v>
       </c>
       <c r="G14" t="n">
-        <v>1838122.8692</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -959,24 +833,15 @@
         <v>206887.5215</v>
       </c>
       <c r="G15" t="n">
-        <v>1838122.8692</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -998,24 +863,15 @@
         <v>5511.5562</v>
       </c>
       <c r="G16" t="n">
-        <v>1832611.313</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1037,24 +893,15 @@
         <v>11365.5535</v>
       </c>
       <c r="G17" t="n">
-        <v>1843976.8665</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1076,24 +923,15 @@
         <v>9003.5733</v>
       </c>
       <c r="G18" t="n">
-        <v>1852980.4398</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1115,24 +953,15 @@
         <v>24127.0414</v>
       </c>
       <c r="G19" t="n">
-        <v>1828853.3984</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1154,24 +983,15 @@
         <v>3965.2373</v>
       </c>
       <c r="G20" t="n">
-        <v>1828853.3984</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1193,24 +1013,15 @@
         <v>255000</v>
       </c>
       <c r="G21" t="n">
-        <v>2083853.3984</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1232,24 +1043,15 @@
         <v>37407.0303</v>
       </c>
       <c r="G22" t="n">
-        <v>2121260.4287</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1271,24 +1073,15 @@
         <v>828</v>
       </c>
       <c r="G23" t="n">
-        <v>2120432.4287</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1310,24 +1103,15 @@
         <v>168501.4324</v>
       </c>
       <c r="G24" t="n">
-        <v>2288933.8611</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1349,24 +1133,15 @@
         <v>14680.4201</v>
       </c>
       <c r="G25" t="n">
-        <v>2288933.8611</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1388,24 +1163,15 @@
         <v>156320.8566</v>
       </c>
       <c r="G26" t="n">
-        <v>2132613.0045</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1427,24 +1193,15 @@
         <v>72400</v>
       </c>
       <c r="G27" t="n">
-        <v>2060213.0045</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1466,24 +1223,15 @@
         <v>17571.4286</v>
       </c>
       <c r="G28" t="n">
-        <v>2042641.5759</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1505,24 +1253,15 @@
         <v>4287.8914</v>
       </c>
       <c r="G29" t="n">
-        <v>2038353.6845</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1544,24 +1283,15 @@
         <v>545.3866</v>
       </c>
       <c r="G30" t="n">
-        <v>2038353.6845</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1583,24 +1313,15 @@
         <v>10000</v>
       </c>
       <c r="G31" t="n">
-        <v>2048353.6845</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1622,24 +1343,15 @@
         <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>2048253.6845</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1661,24 +1373,15 @@
         <v>68840.0539</v>
       </c>
       <c r="G33" t="n">
-        <v>1979413.6306</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1700,24 +1403,15 @@
         <v>5527.8287</v>
       </c>
       <c r="G34" t="n">
-        <v>1984941.4593</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1739,24 +1433,15 @@
         <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>1984841.4593</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1778,24 +1463,15 @@
         <v>66043.7347</v>
       </c>
       <c r="G36" t="n">
-        <v>1918797.7246</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1817,24 +1493,15 @@
         <v>8000</v>
       </c>
       <c r="G37" t="n">
-        <v>1926797.7246</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1856,24 +1523,15 @@
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>1926897.7246</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1895,24 +1553,15 @@
         <v>2309.9469</v>
       </c>
       <c r="G39" t="n">
-        <v>1929207.6715</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1934,24 +1583,15 @@
         <v>61487.6158</v>
       </c>
       <c r="G40" t="n">
-        <v>1990695.2873</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1973,24 +1613,15 @@
         <v>22510.1294</v>
       </c>
       <c r="G41" t="n">
-        <v>1990695.2873</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2012,24 +1643,15 @@
         <v>1065342.4353</v>
       </c>
       <c r="G42" t="n">
-        <v>925352.852</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2051,24 +1673,15 @@
         <v>9468.7894</v>
       </c>
       <c r="G43" t="n">
-        <v>934821.6414</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2090,24 +1703,15 @@
         <v>10962.0368</v>
       </c>
       <c r="G44" t="n">
-        <v>934821.6414</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2129,24 +1733,15 @@
         <v>966.8</v>
       </c>
       <c r="G45" t="n">
-        <v>934821.6414</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2168,24 +1763,15 @@
         <v>1200</v>
       </c>
       <c r="G46" t="n">
-        <v>934821.6414</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2207,24 +1793,15 @@
         <v>50230.0531</v>
       </c>
       <c r="G47" t="n">
-        <v>884591.5882999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2246,24 +1823,15 @@
         <v>8433.0005</v>
       </c>
       <c r="G48" t="n">
-        <v>876158.5878</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2285,24 +1853,15 @@
         <v>134010</v>
       </c>
       <c r="G49" t="n">
-        <v>742148.5878</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2324,24 +1883,15 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>741148.5878</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2363,24 +1913,15 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>742148.5878</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2402,24 +1943,15 @@
         <v>200</v>
       </c>
       <c r="G52" t="n">
-        <v>742348.5878</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2441,24 +1973,15 @@
         <v>200</v>
       </c>
       <c r="G53" t="n">
-        <v>742348.5878</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2480,24 +2003,15 @@
         <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>742248.5878</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2519,24 +2033,15 @@
         <v>200</v>
       </c>
       <c r="G55" t="n">
-        <v>742048.5878</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2558,24 +2063,15 @@
         <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>741948.5878</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2597,24 +2093,15 @@
         <v>16000</v>
       </c>
       <c r="G57" t="n">
-        <v>741948.5878</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2636,24 +2123,15 @@
         <v>10000</v>
       </c>
       <c r="G58" t="n">
-        <v>741948.5878</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2675,24 +2153,15 @@
         <v>5803.8216</v>
       </c>
       <c r="G59" t="n">
-        <v>736144.7662</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2714,24 +2183,19 @@
         <v>93426.9322</v>
       </c>
       <c r="G60" t="n">
-        <v>642717.8339999999</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>7.41</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2753,24 +2217,23 @@
         <v>8063.391</v>
       </c>
       <c r="G61" t="n">
-        <v>634654.443</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>7.4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2792,24 +2255,23 @@
         <v>8582</v>
       </c>
       <c r="G62" t="n">
-        <v>643236.443</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
+        <v>7.36</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2831,24 +2293,23 @@
         <v>102169.9261</v>
       </c>
       <c r="G63" t="n">
-        <v>541066.5168999999</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
+        <v>7.42</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2870,24 +2331,23 @@
         <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>541166.5168999999</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
+        <v>7.32</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2909,24 +2369,23 @@
         <v>70</v>
       </c>
       <c r="G65" t="n">
-        <v>541236.5168999999</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
+        <v>7.43</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2948,24 +2407,23 @@
         <v>79378.5384</v>
       </c>
       <c r="G66" t="n">
-        <v>461857.9784999999</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
+        <v>7.44</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2987,24 +2445,23 @@
         <v>255.1241</v>
       </c>
       <c r="G67" t="n">
-        <v>462113.1025999999</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
+        <v>7.4</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3026,24 +2483,23 @@
         <v>8202.6962</v>
       </c>
       <c r="G68" t="n">
-        <v>453910.4063999999</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
+        <v>7.44</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3065,24 +2521,23 @@
         <v>1995</v>
       </c>
       <c r="G69" t="n">
-        <v>451915.4063999999</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
+        <v>7.4</v>
+      </c>
+      <c r="I69" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3104,24 +2559,23 @@
         <v>669</v>
       </c>
       <c r="G70" t="n">
-        <v>452584.4063999999</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
+        <v>7.34</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3143,24 +2597,23 @@
         <v>1100</v>
       </c>
       <c r="G71" t="n">
-        <v>453684.4063999999</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
+        <v>7.44</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3182,24 +2635,23 @@
         <v>60806.3356</v>
       </c>
       <c r="G72" t="n">
-        <v>392878.0707999999</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
+        <v>7.46</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3221,24 +2673,23 @@
         <v>4749</v>
       </c>
       <c r="G73" t="n">
-        <v>388129.0707999999</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
+        <v>7.45</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3260,24 +2711,23 @@
         <v>223</v>
       </c>
       <c r="G74" t="n">
-        <v>388352.0707999999</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
+        <v>7.43</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3299,24 +2749,21 @@
         <v>266021.3279</v>
       </c>
       <c r="G75" t="n">
-        <v>654373.3986999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3338,24 +2785,21 @@
         <v>2378</v>
       </c>
       <c r="G76" t="n">
-        <v>654373.3986999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3377,24 +2821,21 @@
         <v>42789.0513</v>
       </c>
       <c r="G77" t="n">
-        <v>697162.45</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3416,24 +2857,21 @@
         <v>3000</v>
       </c>
       <c r="G78" t="n">
-        <v>700162.45</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3455,24 +2893,21 @@
         <v>50717.57</v>
       </c>
       <c r="G79" t="n">
-        <v>649444.88</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3494,24 +2929,21 @@
         <v>70</v>
       </c>
       <c r="G80" t="n">
-        <v>649514.88</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3533,24 +2965,21 @@
         <v>6259</v>
       </c>
       <c r="G81" t="n">
-        <v>649514.88</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3572,24 +3001,21 @@
         <v>14689</v>
       </c>
       <c r="G82" t="n">
-        <v>649514.88</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3611,24 +3037,21 @@
         <v>2175836.6418</v>
       </c>
       <c r="G83" t="n">
-        <v>2825351.5218</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3650,24 +3073,21 @@
         <v>783703.7237</v>
       </c>
       <c r="G84" t="n">
-        <v>3609055.2455</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3689,24 +3109,21 @@
         <v>267848.5517</v>
       </c>
       <c r="G85" t="n">
-        <v>3876903.7972</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3728,24 +3145,21 @@
         <v>102494.7684</v>
       </c>
       <c r="G86" t="n">
-        <v>3774409.0288</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3767,24 +3181,21 @@
         <v>268424.7998</v>
       </c>
       <c r="G87" t="n">
-        <v>4042833.8286</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3806,24 +3217,21 @@
         <v>625592.0721</v>
       </c>
       <c r="G88" t="n">
-        <v>4668425.9007</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3845,24 +3253,21 @@
         <v>67955.3132</v>
       </c>
       <c r="G89" t="n">
-        <v>4668425.9007</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3884,24 +3289,21 @@
         <v>809243.7791</v>
       </c>
       <c r="G90" t="n">
-        <v>5477669.6798</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3923,24 +3325,21 @@
         <v>900</v>
       </c>
       <c r="G91" t="n">
-        <v>5477669.6798</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3962,24 +3361,21 @@
         <v>110</v>
       </c>
       <c r="G92" t="n">
-        <v>5477559.6798</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4001,24 +3397,21 @@
         <v>3539</v>
       </c>
       <c r="G93" t="n">
-        <v>5481098.6798</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4040,24 +3433,21 @@
         <v>3000</v>
       </c>
       <c r="G94" t="n">
-        <v>5484098.6798</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4079,24 +3469,21 @@
         <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>5483898.6798</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1.047</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4118,18 +3505,21 @@
         <v>2000</v>
       </c>
       <c r="G96" t="n">
-        <v>5481898.6798</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4151,18 +3541,21 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>5481998.6798</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4184,18 +3577,21 @@
         <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>5481898.6798</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1.047631578947368</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4217,18 +3613,15 @@
         <v>100</v>
       </c>
       <c r="G99" t="n">
-        <v>5481998.6798</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4250,18 +3643,15 @@
         <v>1000</v>
       </c>
       <c r="G100" t="n">
-        <v>5481998.6798</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4283,18 +3673,15 @@
         <v>70</v>
       </c>
       <c r="G101" t="n">
-        <v>5481928.6798</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4316,18 +3703,15 @@
         <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>5482028.6798</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4349,18 +3733,15 @@
         <v>70</v>
       </c>
       <c r="G103" t="n">
-        <v>5481958.6798</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4382,18 +3763,15 @@
         <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>5482058.6798</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4415,18 +3793,15 @@
         <v>70</v>
       </c>
       <c r="G105" t="n">
-        <v>5481988.6798</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4448,18 +3823,15 @@
         <v>70</v>
       </c>
       <c r="G106" t="n">
-        <v>5482058.6798</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4481,18 +3853,15 @@
         <v>38123.0147</v>
       </c>
       <c r="G107" t="n">
-        <v>5443935.6651</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4514,18 +3883,15 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>5443835.6651</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4547,18 +3913,15 @@
         <v>70</v>
       </c>
       <c r="G109" t="n">
-        <v>5443905.6651</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4580,18 +3943,15 @@
         <v>139564.4591</v>
       </c>
       <c r="G110" t="n">
-        <v>5304341.206</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4613,18 +3973,15 @@
         <v>70</v>
       </c>
       <c r="G111" t="n">
-        <v>5304411.206</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4646,18 +4003,15 @@
         <v>13392.8644</v>
       </c>
       <c r="G112" t="n">
-        <v>5291018.3416</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4679,18 +4033,15 @@
         <v>122797.1356</v>
       </c>
       <c r="G113" t="n">
-        <v>5168221.206</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4712,18 +4063,15 @@
         <v>87.22790000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>5168308.433900001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4745,18 +4093,15 @@
         <v>92405</v>
       </c>
       <c r="G115" t="n">
-        <v>5075903.433900001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4778,18 +4123,15 @@
         <v>116368.4232</v>
       </c>
       <c r="G116" t="n">
-        <v>5192271.857100001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4811,18 +4153,15 @@
         <v>2100</v>
       </c>
       <c r="G117" t="n">
-        <v>5194371.857100001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4844,18 +4183,15 @@
         <v>1582.6147</v>
       </c>
       <c r="G118" t="n">
-        <v>5194371.857100001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4877,18 +4213,15 @@
         <v>178181.3853</v>
       </c>
       <c r="G119" t="n">
-        <v>5372553.242400001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4910,18 +4243,15 @@
         <v>11000</v>
       </c>
       <c r="G120" t="n">
-        <v>5383553.242400001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4943,18 +4273,15 @@
         <v>28591.9227</v>
       </c>
       <c r="G121" t="n">
-        <v>5383553.242400001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4976,18 +4303,15 @@
         <v>36318.6369</v>
       </c>
       <c r="G122" t="n">
-        <v>5383553.242400001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5009,18 +4333,15 @@
         <v>70</v>
       </c>
       <c r="G123" t="n">
-        <v>5383623.242400001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5042,18 +4363,15 @@
         <v>20055.764</v>
       </c>
       <c r="G124" t="n">
-        <v>5383623.242400001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
